--- a/Dataset/Meteorologi Jakarta Utara 2019-2021/M-2-19-JU.xlsx
+++ b/Dataset/Meteorologi Jakarta Utara 2019-2021/M-2-19-JU.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>ID WMO</t>
   </si>
@@ -65,21 +65,12 @@
     <t>ff_avg</t>
   </si>
   <si>
-    <t>ddd_car</t>
-  </si>
-  <si>
     <t>01-02-2019</t>
   </si>
   <si>
-    <t xml:space="preserve">W </t>
-  </si>
-  <si>
     <t>02-02-2019</t>
   </si>
   <si>
-    <t>NW</t>
-  </si>
-  <si>
     <t>03-02-2019</t>
   </si>
   <si>
@@ -92,9 +83,6 @@
     <t>06-02-2019</t>
   </si>
   <si>
-    <t xml:space="preserve">C </t>
-  </si>
-  <si>
     <t>07-02-2019</t>
   </si>
   <si>
@@ -119,15 +107,9 @@
     <t>14-02-2019</t>
   </si>
   <si>
-    <t>SE</t>
-  </si>
-  <si>
     <t>15-02-2019</t>
   </si>
   <si>
-    <t xml:space="preserve">N </t>
-  </si>
-  <si>
     <t>16-02-2019</t>
   </si>
   <si>
@@ -140,9 +122,6 @@
     <t>19-02-2019</t>
   </si>
   <si>
-    <t>NE</t>
-  </si>
-  <si>
     <t>20-02-2019</t>
   </si>
   <si>
@@ -164,9 +143,6 @@
     <t>26-02-2019</t>
   </si>
   <si>
-    <t xml:space="preserve">E </t>
-  </si>
-  <si>
     <t>27-02-2019</t>
   </si>
   <si>
@@ -195,9 +171,6 @@
   </si>
   <si>
     <t>ff_avg: Kecepatan angin rata-rata (m/s)</t>
-  </si>
-  <si>
-    <t>ddd_car: Arah angin terbanyak (°)</t>
   </si>
 </sst>
 </file>
@@ -591,10 +564,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -605,10 +578,9 @@
     <col min="4" max="4" width="13" customWidth="true" style="0"/>
     <col min="5" max="5" width="13" customWidth="true" style="0"/>
     <col min="6" max="6" width="13" customWidth="true" style="0"/>
-    <col min="7" max="7" width="13" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1"/>
       <c r="B1" t="s">
         <v>0</v>
@@ -617,7 +589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -625,7 +597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -633,7 +605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -641,7 +613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -649,7 +621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -668,13 +640,10 @@
       <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="B10" s="2">
         <v>27.4</v>
@@ -691,13 +660,10 @@
       <c r="F10" s="2">
         <v>2</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2">
         <v>28.2</v>
@@ -714,13 +680,10 @@
       <c r="F11" s="2">
         <v>3</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2">
         <v>28.5</v>
@@ -735,13 +698,10 @@
       <c r="F12" s="2">
         <v>3</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2">
         <v>28.7</v>
@@ -758,13 +718,10 @@
       <c r="F13" s="2">
         <v>3</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2">
         <v>28.7</v>
@@ -781,13 +738,10 @@
       <c r="F14" s="2">
         <v>3</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2">
         <v>28.9</v>
@@ -804,13 +758,10 @@
       <c r="F15" s="2">
         <v>2</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2">
         <v>28.9</v>
@@ -825,13 +776,10 @@
       <c r="F16" s="2">
         <v>2</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2">
         <v>29</v>
@@ -846,13 +794,10 @@
       <c r="F17" s="2">
         <v>2</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2">
         <v>29.2</v>
@@ -867,13 +812,10 @@
       <c r="F18" s="2">
         <v>2</v>
       </c>
-      <c r="G18" s="2" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="B19" s="2">
         <v>28.9</v>
@@ -890,13 +832,10 @@
       <c r="F19" s="2">
         <v>3</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2">
         <v>27.8</v>
@@ -913,13 +852,10 @@
       <c r="F20" s="2">
         <v>2</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2">
         <v>28.3</v>
@@ -936,13 +872,10 @@
       <c r="F21" s="2">
         <v>2</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2">
         <v>28.3</v>
@@ -959,13 +892,10 @@
       <c r="F22" s="2">
         <v>1</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2">
         <v>28.4</v>
@@ -982,13 +912,10 @@
       <c r="F23" s="2">
         <v>2</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2">
         <v>28.3</v>
@@ -1003,13 +930,10 @@
       <c r="F24" s="2">
         <v>3</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2">
         <v>27.7</v>
@@ -1026,13 +950,10 @@
       <c r="F25" s="2">
         <v>1</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2">
         <v>27.3</v>
@@ -1049,13 +970,10 @@
       <c r="F26" s="2">
         <v>2</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2">
         <v>28.8</v>
@@ -1072,13 +990,10 @@
       <c r="F27" s="2">
         <v>1</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2">
         <v>29</v>
@@ -1095,13 +1010,10 @@
       <c r="F28" s="2">
         <v>2</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2">
         <v>28.3</v>
@@ -1118,13 +1030,10 @@
       <c r="F29" s="2">
         <v>1</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2">
         <v>28.6</v>
@@ -1141,13 +1050,10 @@
       <c r="F30" s="2">
         <v>2</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2">
         <v>27.7</v>
@@ -1164,13 +1070,10 @@
       <c r="F31" s="2">
         <v>1</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2">
         <v>27.9</v>
@@ -1187,13 +1090,10 @@
       <c r="F32" s="2">
         <v>1</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2">
         <v>28.5</v>
@@ -1210,13 +1110,10 @@
       <c r="F33" s="2">
         <v>2</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2">
         <v>29.2</v>
@@ -1233,13 +1130,10 @@
       <c r="F34" s="2">
         <v>1</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2">
         <v>29.4</v>
@@ -1254,13 +1148,10 @@
       <c r="F35" s="2">
         <v>3</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2">
         <v>29.6</v>
@@ -1275,13 +1166,10 @@
       <c r="F36" s="2">
         <v>3</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2">
         <v>29.2</v>
@@ -1298,53 +1186,45 @@
       <c r="F37" s="2">
         <v>2</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
